--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SkillShareAdd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Url</t>
   </si>
@@ -55,6 +55,75 @@
   </si>
   <si>
     <t>test5698@gmail.com</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Skill share</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Video &amp; Animation</t>
+  </si>
+  <si>
+    <t>Lyric &amp; Music Videos</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>testSkills</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Location Type </t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Skill Trade</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Skill Exchange</t>
+  </si>
+  <si>
+    <t>Availiable</t>
+  </si>
+  <si>
+    <t>Work Samples</t>
+  </si>
+  <si>
+    <t>FileUpload.exe</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -101,9 +170,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,12 +579,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>32660</v>
+      </c>
+      <c r="J2" s="2">
+        <v>32689</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="G10" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp" sheetId="2" r:id="rId2"/>
     <sheet name="SkillShareAdd" sheetId="3" r:id="rId3"/>
+    <sheet name="Profile" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Url</t>
   </si>
@@ -124,6 +125,30 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>AvailableTime</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Mera</t>
+  </si>
+  <si>
+    <t>Dost</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>More than 30hours a week</t>
+  </si>
+  <si>
+    <t>EarnTarget</t>
+  </si>
+  <si>
+    <t>Between $500 and $1000 per month</t>
   </si>
 </sst>
 </file>
@@ -581,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -702,4 +727,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -130,9 +130,6 @@
     <t>AvailableTime</t>
   </si>
   <si>
-    <t>Full time</t>
-  </si>
-  <si>
     <t>Mera</t>
   </si>
   <si>
@@ -142,13 +139,16 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>More than 30hours a week</t>
-  </si>
-  <si>
     <t>EarnTarget</t>
   </si>
   <si>
-    <t>Between $500 and $1000 per month</t>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>As needed</t>
+  </si>
+  <si>
+    <t>More than $1000 per month</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,24 +763,24 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Url</t>
   </si>
@@ -88,36 +88,12 @@
     <t>testSkills</t>
   </si>
   <si>
-    <t>Service Type</t>
-  </si>
-  <si>
     <t>One-off service</t>
   </si>
   <si>
-    <t xml:space="preserve"> Location Type </t>
-  </si>
-  <si>
-    <t>On-site</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Skill Trade</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
-    <t>Skill Exchange</t>
-  </si>
-  <si>
-    <t>Availiable</t>
-  </si>
-  <si>
     <t>Work Samples</t>
   </si>
   <si>
@@ -149,13 +125,52 @@
   </si>
   <si>
     <t>More than $1000 per month</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>On-Site</t>
+  </si>
+  <si>
+    <t>DayTwoSel</t>
+  </si>
+  <si>
+    <t>DayThreeSel</t>
+  </si>
+  <si>
+    <t>DayOneSel</t>
+  </si>
+  <si>
+    <t>Mon,01:00AM,03:00PM</t>
+  </si>
+  <si>
+    <t>Wed,01:00AM,03:00PM</t>
+  </si>
+  <si>
+    <t>Fri,01:00AM,03:00PM</t>
+  </si>
+  <si>
+    <t>LocationType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +184,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,10 +216,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,10 +632,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,15 +646,13 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,82 +672,108 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43534</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43554</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3">
+        <v>100</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2">
-        <v>32660</v>
-      </c>
-      <c r="J2" s="2">
-        <v>32689</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -733,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -760,30 +812,30 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp" sheetId="2" r:id="rId2"/>
     <sheet name="SkillShareAdd" sheetId="3" r:id="rId3"/>
     <sheet name="Profile" sheetId="4" r:id="rId4"/>
+    <sheet name="EditShareSkill" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Url</t>
   </si>
@@ -161,6 +162,30 @@
   </si>
   <si>
     <t>LocationType</t>
+  </si>
+  <si>
+    <t>OldTitle</t>
+  </si>
+  <si>
+    <t>OldDescription</t>
+  </si>
+  <si>
+    <t>SkillExchange</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>New Skill Share</t>
+  </si>
+  <si>
+    <t>I love automation testing</t>
+  </si>
+  <si>
+    <t>Graphics &amp; Design</t>
+  </si>
+  <si>
+    <t>Flyers &amp; Brochures</t>
   </si>
 </sst>
 </file>
@@ -634,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,6 +675,8 @@
     <col min="11" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -786,7 +813,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -842,4 +869,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5">
+        <v>43534</v>
+      </c>
+      <c r="K2" s="5">
+        <v>43554</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
